--- a/required.xlsx
+++ b/required.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D40C79-1940-4063-9A8F-9E02B457C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3154C9-CA71-4F8E-A0C4-78CC2AC28477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>Governor ID</t>
   </si>
@@ -837,12 +837,6 @@
   </si>
   <si>
     <t>miniATLAS</t>
-  </si>
-  <si>
-    <t>Vali45467514</t>
-  </si>
-  <si>
-    <t>Thống đốc45449474</t>
   </si>
   <si>
     <t>Power</t>
@@ -1246,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559BD048-844F-4089-89DC-8705280A656D}">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E276"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s">
         <v>105</v>
@@ -4919,162 +4913,6 @@
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B265" s="2">
-        <v>45467514</v>
-      </c>
-      <c r="C265" s="2">
-        <v>165742</v>
-      </c>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B266" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C266" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B267" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C267" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C268" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C269" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B270" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C270" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C271" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B272" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C272" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B273" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C273" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B274" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C274" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B275" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C275" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B276" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C276" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A186:A1048576 A2:A171">

--- a/required.xlsx
+++ b/required.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3154C9-CA71-4F8E-A0C4-78CC2AC28477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B7349-00B7-4C87-B33B-7414CA69C311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559BD048-844F-4089-89DC-8705280A656D}">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:XFD276"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,8 +2233,12 @@
       <c r="C58" s="2">
         <v>39349888</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2246,8 +2250,12 @@
       <c r="C59" s="2">
         <v>37928405</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -2259,8 +2267,12 @@
       <c r="C60" s="2">
         <v>37267566</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2272,8 +2284,12 @@
       <c r="C61" s="2">
         <v>37003732</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2285,8 +2301,12 @@
       <c r="C62" s="2">
         <v>36591345</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -2298,8 +2318,12 @@
       <c r="C63" s="2">
         <v>35363241</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2311,8 +2335,12 @@
       <c r="C64" s="2">
         <v>35298523</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -2324,8 +2352,12 @@
       <c r="C65" s="2">
         <v>31640844</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -2337,8 +2369,12 @@
       <c r="C66" s="2">
         <v>31566677</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -2350,8 +2386,12 @@
       <c r="C67" s="2">
         <v>30761186</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -2363,8 +2403,12 @@
       <c r="C68" s="2">
         <v>30510460</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2376,8 +2420,12 @@
       <c r="C69" s="2">
         <v>29986400</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -2389,8 +2437,12 @@
       <c r="C70" s="2">
         <v>29657548</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -2402,8 +2454,12 @@
       <c r="C71" s="2">
         <v>29237883</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -2415,8 +2471,12 @@
       <c r="C72" s="2">
         <v>29165198</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -2428,8 +2488,12 @@
       <c r="C73" s="2">
         <v>28896229</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -2441,8 +2505,12 @@
       <c r="C74" s="2">
         <v>28482811</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -2454,8 +2522,12 @@
       <c r="C75" s="2">
         <v>28213323</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -2467,8 +2539,12 @@
       <c r="C76" s="2">
         <v>27937322</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -2480,8 +2556,12 @@
       <c r="C77" s="2">
         <v>27552256</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -2493,8 +2573,12 @@
       <c r="C78" s="2">
         <v>27315972</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -2506,8 +2590,12 @@
       <c r="C79" s="2">
         <v>27303170</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2519,8 +2607,12 @@
       <c r="C80" s="2">
         <v>26617800</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -2532,8 +2624,12 @@
       <c r="C81" s="2">
         <v>26135350</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -2545,8 +2641,12 @@
       <c r="C82" s="2">
         <v>25945155</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -2558,8 +2658,12 @@
       <c r="C83" s="2">
         <v>25822457</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -2571,8 +2675,12 @@
       <c r="C84" s="2">
         <v>25733416</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -2584,8 +2692,12 @@
       <c r="C85" s="2">
         <v>25251556</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -2597,8 +2709,12 @@
       <c r="C86" s="2">
         <v>25152525</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -2610,8 +2726,12 @@
       <c r="C87" s="2">
         <v>25137262</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2623,8 +2743,12 @@
       <c r="C88" s="2">
         <v>24892724</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -2636,8 +2760,12 @@
       <c r="C89" s="2">
         <v>24506705</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -2649,8 +2777,12 @@
       <c r="C90" s="2">
         <v>24503854</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -2662,8 +2794,12 @@
       <c r="C91" s="2">
         <v>24272973</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -2675,8 +2811,12 @@
       <c r="C92" s="2">
         <v>24209926</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -2688,8 +2828,12 @@
       <c r="C93" s="2">
         <v>24073683</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -2701,8 +2845,12 @@
       <c r="C94" s="2">
         <v>23992338</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -2714,8 +2862,12 @@
       <c r="C95" s="2">
         <v>23672116</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2727,8 +2879,12 @@
       <c r="C96" s="2">
         <v>23230736</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
@@ -2740,8 +2896,12 @@
       <c r="C97" s="2">
         <v>22866730</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -2753,8 +2913,12 @@
       <c r="C98" s="2">
         <v>22846427</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -2766,8 +2930,12 @@
       <c r="C99" s="2">
         <v>22674437</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -2779,8 +2947,12 @@
       <c r="C100" s="2">
         <v>21735616</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2792,8 +2964,12 @@
       <c r="C101" s="2">
         <v>21485242</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -2805,8 +2981,12 @@
       <c r="C102" s="2">
         <v>21169454</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -2818,8 +2998,12 @@
       <c r="C103" s="2">
         <v>21094286</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -2831,8 +3015,12 @@
       <c r="C104" s="2">
         <v>20845376</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2844,8 +3032,12 @@
       <c r="C105" s="2">
         <v>20687223</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -2857,8 +3049,12 @@
       <c r="C106" s="2">
         <v>20680158</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -2870,8 +3066,12 @@
       <c r="C107" s="2">
         <v>20663749</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -2883,8 +3083,12 @@
       <c r="C108" s="2">
         <v>20440075</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -2896,8 +3100,12 @@
       <c r="C109" s="2">
         <v>20219161</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -2909,8 +3117,12 @@
       <c r="C110" s="2">
         <v>20163490</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -2922,8 +3134,12 @@
       <c r="C111" s="2">
         <v>20044181</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -2935,8 +3151,12 @@
       <c r="C112" s="2">
         <v>19942444</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -2948,8 +3168,12 @@
       <c r="C113" s="2">
         <v>19908270</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -2961,8 +3185,12 @@
       <c r="C114" s="2">
         <v>19514360</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
@@ -2974,8 +3202,12 @@
       <c r="C115" s="2">
         <v>19258185</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -2987,8 +3219,12 @@
       <c r="C116" s="2">
         <v>19233352</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -3000,8 +3236,12 @@
       <c r="C117" s="2">
         <v>19217805</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -3013,8 +3253,12 @@
       <c r="C118" s="2">
         <v>18769466</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -3026,8 +3270,12 @@
       <c r="C119" s="2">
         <v>18613613</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -3039,8 +3287,12 @@
       <c r="C120" s="2">
         <v>18439448</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -3052,8 +3304,12 @@
       <c r="C121" s="2">
         <v>18054228</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
@@ -3065,8 +3321,12 @@
       <c r="C122" s="2">
         <v>18050925</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
@@ -3078,8 +3338,12 @@
       <c r="C123" s="2">
         <v>18006312</v>
       </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -3091,8 +3355,12 @@
       <c r="C124" s="2">
         <v>17822824</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -3104,8 +3372,12 @@
       <c r="C125" s="2">
         <v>17723710</v>
       </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -3117,8 +3389,12 @@
       <c r="C126" s="2">
         <v>17672739</v>
       </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -3130,8 +3406,12 @@
       <c r="C127" s="2">
         <v>17642734</v>
       </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -3143,8 +3423,12 @@
       <c r="C128" s="2">
         <v>17506659</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -3156,8 +3440,12 @@
       <c r="C129" s="2">
         <v>17487211</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -3169,8 +3457,12 @@
       <c r="C130" s="2">
         <v>17395476</v>
       </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
@@ -3182,8 +3474,12 @@
       <c r="C131" s="2">
         <v>17085429</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -3195,8 +3491,12 @@
       <c r="C132" s="2">
         <v>17064284</v>
       </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -3208,8 +3508,12 @@
       <c r="C133" s="2">
         <v>17004697</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -3221,8 +3525,12 @@
       <c r="C134" s="2">
         <v>16840433</v>
       </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
@@ -3234,8 +3542,12 @@
       <c r="C135" s="2">
         <v>16646680</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -3247,8 +3559,12 @@
       <c r="C136" s="2">
         <v>16635439</v>
       </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
@@ -3260,8 +3576,12 @@
       <c r="C137" s="2">
         <v>16633905</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -3273,8 +3593,12 @@
       <c r="C138" s="2">
         <v>16518342</v>
       </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -3286,8 +3610,12 @@
       <c r="C139" s="2">
         <v>16517696</v>
       </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -3299,8 +3627,12 @@
       <c r="C140" s="2">
         <v>16236081</v>
       </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
@@ -3312,8 +3644,12 @@
       <c r="C141" s="2">
         <v>15890308</v>
       </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -3325,8 +3661,12 @@
       <c r="C142" s="2">
         <v>15815582</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
@@ -3338,8 +3678,12 @@
       <c r="C143" s="2">
         <v>15412462</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -3351,8 +3695,12 @@
       <c r="C144" s="2">
         <v>15226565</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
@@ -3364,8 +3712,12 @@
       <c r="C145" s="2">
         <v>15194631</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -3377,8 +3729,12 @@
       <c r="C146" s="2">
         <v>15108781</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -3390,8 +3746,12 @@
       <c r="C147" s="2">
         <v>15032993</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -3403,8 +3763,12 @@
       <c r="C148" s="2">
         <v>14961207</v>
       </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -3416,8 +3780,12 @@
       <c r="C149" s="2">
         <v>14615656</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -3429,8 +3797,12 @@
       <c r="C150" s="2">
         <v>14461643</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -3442,8 +3814,12 @@
       <c r="C151" s="2">
         <v>14448728</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -3455,8 +3831,12 @@
       <c r="C152" s="2">
         <v>14300588</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -3468,8 +3848,12 @@
       <c r="C153" s="2">
         <v>14242642</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -3481,8 +3865,12 @@
       <c r="C154" s="2">
         <v>14180961</v>
       </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -3494,8 +3882,12 @@
       <c r="C155" s="2">
         <v>14035139</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -3507,8 +3899,12 @@
       <c r="C156" s="2">
         <v>13604880</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -3520,8 +3916,12 @@
       <c r="C157" s="2">
         <v>13604111</v>
       </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -3533,8 +3933,12 @@
       <c r="C158" s="2">
         <v>13307068</v>
       </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -3546,8 +3950,12 @@
       <c r="C159" s="2">
         <v>13288591</v>
       </c>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -3559,8 +3967,12 @@
       <c r="C160" s="2">
         <v>13200457</v>
       </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -3572,8 +3984,12 @@
       <c r="C161" s="2">
         <v>13020133</v>
       </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -3585,8 +4001,12 @@
       <c r="C162" s="2">
         <v>12885775</v>
       </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
@@ -3598,8 +4018,12 @@
       <c r="C163" s="2">
         <v>12526642</v>
       </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -3611,8 +4035,12 @@
       <c r="C164" s="2">
         <v>12283421</v>
       </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -3624,8 +4052,12 @@
       <c r="C165" s="2">
         <v>11950726</v>
       </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -3637,8 +4069,12 @@
       <c r="C166" s="2">
         <v>11622581</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -3650,8 +4086,12 @@
       <c r="C167" s="2">
         <v>11572835</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
@@ -3663,8 +4103,12 @@
       <c r="C168" s="2">
         <v>11568369</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
@@ -3676,8 +4120,12 @@
       <c r="C169" s="2">
         <v>11541637</v>
       </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -3689,8 +4137,12 @@
       <c r="C170" s="2">
         <v>11330655</v>
       </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
@@ -3702,8 +4154,12 @@
       <c r="C171" s="2">
         <v>11318359</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -3715,8 +4171,12 @@
       <c r="C172" s="2">
         <v>11312217</v>
       </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -3728,8 +4188,12 @@
       <c r="C173" s="2">
         <v>11259615</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
@@ -3741,8 +4205,12 @@
       <c r="C174" s="2">
         <v>11162301</v>
       </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -3754,8 +4222,12 @@
       <c r="C175" s="2">
         <v>11035612</v>
       </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
@@ -3767,8 +4239,12 @@
       <c r="C176" s="2">
         <v>11027724</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
@@ -3780,8 +4256,12 @@
       <c r="C177" s="2">
         <v>11007668</v>
       </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -3793,8 +4273,12 @@
       <c r="C178" s="2">
         <v>10835773</v>
       </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -3806,8 +4290,12 @@
       <c r="C179" s="2">
         <v>10674650</v>
       </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -3819,8 +4307,12 @@
       <c r="C180" s="2">
         <v>10651310</v>
       </c>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -3832,8 +4324,12 @@
       <c r="C181" s="2">
         <v>10526961</v>
       </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -3845,8 +4341,12 @@
       <c r="C182" s="2">
         <v>10466724</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -3858,8 +4358,12 @@
       <c r="C183" s="2">
         <v>10331875</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -3871,8 +4375,12 @@
       <c r="C184" s="2">
         <v>10319835</v>
       </c>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -3884,8 +4392,12 @@
       <c r="C185" s="2">
         <v>10229504</v>
       </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -3897,8 +4409,12 @@
       <c r="C186" s="2">
         <v>9984541</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
@@ -3910,8 +4426,12 @@
       <c r="C187" s="2">
         <v>9945760</v>
       </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -3923,8 +4443,12 @@
       <c r="C188" s="2">
         <v>9935896</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -3936,8 +4460,12 @@
       <c r="C189" s="2">
         <v>9921963</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -3949,8 +4477,12 @@
       <c r="C190" s="2">
         <v>9910783</v>
       </c>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
@@ -3962,8 +4494,12 @@
       <c r="C191" s="2">
         <v>9873853</v>
       </c>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -3975,8 +4511,12 @@
       <c r="C192" s="2">
         <v>9641490</v>
       </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -3988,8 +4528,12 @@
       <c r="C193" s="2">
         <v>9331531</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -4001,8 +4545,12 @@
       <c r="C194" s="2">
         <v>9245674</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
@@ -4014,8 +4562,12 @@
       <c r="C195" s="2">
         <v>9232834</v>
       </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
@@ -4027,8 +4579,12 @@
       <c r="C196" s="2">
         <v>9020381</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
@@ -4040,8 +4596,12 @@
       <c r="C197" s="2">
         <v>8534240</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
@@ -4053,8 +4613,12 @@
       <c r="C198" s="2">
         <v>8264863</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -4066,8 +4630,12 @@
       <c r="C199" s="2">
         <v>7929573</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
@@ -4079,8 +4647,12 @@
       <c r="C200" s="2">
         <v>7887393</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
@@ -4092,8 +4664,12 @@
       <c r="C201" s="2">
         <v>7845778</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
@@ -4105,8 +4681,12 @@
       <c r="C202" s="2">
         <v>7602683</v>
       </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
@@ -4118,8 +4698,12 @@
       <c r="C203" s="2">
         <v>7591091</v>
       </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
+      <c r="D203" s="1">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
@@ -4131,8 +4715,12 @@
       <c r="C204" s="2">
         <v>7497138</v>
       </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
@@ -4144,8 +4732,12 @@
       <c r="C205" s="2">
         <v>7276892</v>
       </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
+      <c r="D205" s="1">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
@@ -4157,8 +4749,12 @@
       <c r="C206" s="2">
         <v>6314806</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
@@ -4170,8 +4766,12 @@
       <c r="C207" s="2">
         <v>6219794</v>
       </c>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
@@ -4183,8 +4783,12 @@
       <c r="C208" s="2">
         <v>6193362</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
@@ -4196,8 +4800,12 @@
       <c r="C209" s="2">
         <v>6182531</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
@@ -4209,8 +4817,12 @@
       <c r="C210" s="2">
         <v>6180518</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
@@ -4222,8 +4834,12 @@
       <c r="C211" s="2">
         <v>6165936</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
@@ -4235,8 +4851,12 @@
       <c r="C212" s="2">
         <v>6062118</v>
       </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
@@ -4248,8 +4868,12 @@
       <c r="C213" s="2">
         <v>6006129</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
@@ -4261,8 +4885,12 @@
       <c r="C214" s="2">
         <v>5970960</v>
       </c>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
@@ -4274,8 +4902,12 @@
       <c r="C215" s="2">
         <v>5964941</v>
       </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
@@ -4287,8 +4919,12 @@
       <c r="C216" s="2">
         <v>5631942</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
@@ -4300,8 +4936,12 @@
       <c r="C217" s="2">
         <v>5484523</v>
       </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
@@ -4313,8 +4953,12 @@
       <c r="C218" s="2">
         <v>5379982</v>
       </c>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
@@ -4326,8 +4970,12 @@
       <c r="C219" s="2">
         <v>5282860</v>
       </c>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
@@ -4339,8 +4987,12 @@
       <c r="C220" s="2">
         <v>4550083</v>
       </c>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
@@ -4352,8 +5004,12 @@
       <c r="C221" s="2">
         <v>4443084</v>
       </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
@@ -4365,8 +5021,12 @@
       <c r="C222" s="2">
         <v>3637269</v>
       </c>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
+      <c r="D222" s="1">
+        <v>1</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
@@ -4378,8 +5038,12 @@
       <c r="C223" s="2">
         <v>3620905</v>
       </c>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
@@ -4391,8 +5055,12 @@
       <c r="C224" s="2">
         <v>3608280</v>
       </c>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
@@ -4404,8 +5072,12 @@
       <c r="C225" s="2">
         <v>3601147</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
@@ -4417,8 +5089,12 @@
       <c r="C226" s="2">
         <v>3564590</v>
       </c>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
@@ -4430,8 +5106,12 @@
       <c r="C227" s="2">
         <v>3538803</v>
       </c>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
@@ -4443,8 +5123,12 @@
       <c r="C228" s="2">
         <v>3491234</v>
       </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
@@ -4456,8 +5140,12 @@
       <c r="C229" s="2">
         <v>3181192</v>
       </c>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
@@ -4469,8 +5157,12 @@
       <c r="C230" s="2">
         <v>3158436</v>
       </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
@@ -4482,8 +5174,12 @@
       <c r="C231" s="2">
         <v>2805868</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
@@ -4495,8 +5191,12 @@
       <c r="C232" s="2">
         <v>2554167</v>
       </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
@@ -4508,8 +5208,12 @@
       <c r="C233" s="2">
         <v>2544803</v>
       </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
@@ -4521,8 +5225,12 @@
       <c r="C234" s="2">
         <v>2496520</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
@@ -4534,8 +5242,12 @@
       <c r="C235" s="2">
         <v>2475645</v>
       </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
@@ -4547,8 +5259,12 @@
       <c r="C236" s="2">
         <v>2451088</v>
       </c>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
@@ -4560,8 +5276,12 @@
       <c r="C237" s="2">
         <v>2375286</v>
       </c>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -4573,8 +5293,12 @@
       <c r="C238" s="2">
         <v>2218822</v>
       </c>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
@@ -4586,8 +5310,12 @@
       <c r="C239" s="2">
         <v>2045581</v>
       </c>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -4599,8 +5327,12 @@
       <c r="C240" s="2">
         <v>1845588</v>
       </c>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
@@ -4612,8 +5344,12 @@
       <c r="C241" s="2">
         <v>1811227</v>
       </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
@@ -4625,8 +5361,12 @@
       <c r="C242" s="2">
         <v>1772323</v>
       </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
@@ -4638,8 +5378,12 @@
       <c r="C243" s="2">
         <v>1752370</v>
       </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
+      <c r="D243" s="1">
+        <v>1</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -4651,8 +5395,12 @@
       <c r="C244" s="2">
         <v>1678926</v>
       </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
+      <c r="D244" s="1">
+        <v>1</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
@@ -4664,8 +5412,12 @@
       <c r="C245" s="2">
         <v>1590733</v>
       </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
@@ -4677,8 +5429,12 @@
       <c r="C246" s="2">
         <v>1377475</v>
       </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
+      <c r="D246" s="1">
+        <v>1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
@@ -4690,8 +5446,12 @@
       <c r="C247" s="2">
         <v>1297063</v>
       </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
+      <c r="D247" s="1">
+        <v>1</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
@@ -4703,8 +5463,12 @@
       <c r="C248" s="2">
         <v>1285015</v>
       </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
+      <c r="D248" s="1">
+        <v>1</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
@@ -4716,8 +5480,12 @@
       <c r="C249" s="2">
         <v>1282677</v>
       </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
@@ -4729,8 +5497,12 @@
       <c r="C250" s="2">
         <v>1233846</v>
       </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
+      <c r="D250" s="1">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
@@ -4742,8 +5514,12 @@
       <c r="C251" s="2">
         <v>1205327</v>
       </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
+      <c r="D251" s="1">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
@@ -4755,8 +5531,12 @@
       <c r="C252" s="2">
         <v>1114181</v>
       </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
+      <c r="D252" s="1">
+        <v>1</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
@@ -4768,8 +5548,12 @@
       <c r="C253" s="2">
         <v>758923</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
+      <c r="D253" s="1">
+        <v>1</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
@@ -4781,8 +5565,12 @@
       <c r="C254" s="2">
         <v>690865</v>
       </c>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
+      <c r="D254" s="1">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
@@ -4794,8 +5582,12 @@
       <c r="C255" s="2">
         <v>575579</v>
       </c>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
+      <c r="D255" s="1">
+        <v>1</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
@@ -4807,8 +5599,12 @@
       <c r="C256" s="2">
         <v>547459</v>
       </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
+      <c r="D256" s="1">
+        <v>1</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
@@ -4820,8 +5616,12 @@
       <c r="C257" s="2">
         <v>486717</v>
       </c>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
+      <c r="D257" s="1">
+        <v>1</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
@@ -4833,8 +5633,12 @@
       <c r="C258" s="2">
         <v>449555</v>
       </c>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
+      <c r="D258" s="1">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
@@ -4846,8 +5650,12 @@
       <c r="C259" s="2">
         <v>422910</v>
       </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
+      <c r="D259" s="1">
+        <v>1</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
@@ -4859,8 +5667,12 @@
       <c r="C260" s="2">
         <v>380756</v>
       </c>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
+      <c r="D260" s="1">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
@@ -4872,8 +5684,12 @@
       <c r="C261" s="2">
         <v>338947</v>
       </c>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
+      <c r="D261" s="1">
+        <v>1</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
@@ -4885,8 +5701,12 @@
       <c r="C262" s="2">
         <v>285477</v>
       </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
+      <c r="D262" s="1">
+        <v>1</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
@@ -4898,8 +5718,12 @@
       <c r="C263" s="2">
         <v>284219</v>
       </c>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
+      <c r="D263" s="1">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
@@ -4911,8 +5735,12 @@
       <c r="C264" s="2">
         <v>207864</v>
       </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A186:A1048576 A2:A171">

--- a/required.xlsx
+++ b/required.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B7349-00B7-4C87-B33B-7414CA69C311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEFFACF-D67E-4000-848A-6B6A6376E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
   </bookViews>
@@ -889,12 +889,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1242,16 +1243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559BD048-844F-4089-89DC-8705280A656D}">
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,4481 +1265,4481 @@
       <c r="C1" t="s">
         <v>267</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>45440625</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>109801920</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>25000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1800000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>59658597</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>108030071</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>25000000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1800000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>38708637</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>101778471</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>25000000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>70446861</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>93895896</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>17000000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>1400000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>49041000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>92941776</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>17000000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>1400000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>63832228</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>90667216</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>17000000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1400000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>38767756</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>90723037</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>17000000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>1400000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>19760642</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>89181872</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>14000000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>1200000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>78010792</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>88075786</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>14000000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>1200000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>74815491</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>86179680</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>14000000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>1200000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>73021280</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>84969935</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>11000000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>57823214</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>84969536</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>11000000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>93584462</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>83558196</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>11000000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2036382</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>83488596</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>11000000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>89003413</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>83387383</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>11000000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>9393436</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>82526313</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>11000000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>74359287</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>81941236</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>11000000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>58349304</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>81270622</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>11000000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>136635217</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>81167740</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>11000000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>48975732</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>80816109</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>11000000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>142978261</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>80171191</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>11000000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>46268923</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>80067834</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>11000000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>1100000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>59061395</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>79354841</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>9500000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>45472524</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>78921842</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>9500000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>134146479</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>78286155</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>9500000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>111154401</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>78242686</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>9500000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>58744662</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>78069711</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>9500000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>76274504</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>77600934</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>9500000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>31559419</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>75504257</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>9500000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>49499709</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>75317940</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>9500000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>38161087</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>75085257</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>9500000</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>113277991</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>74779275</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>8000000</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>28063072</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>74773057</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>8000000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>64570107</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>74393134</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>8000000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>18103697</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>73743174</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>8000000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>52592885</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>73130593</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>8000000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>59146982</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>72468331</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>8000000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>116198736</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>71944221</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>8000000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>49407662</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>71739979</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>8000000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>900000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>16365096</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>69793621</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>6500000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>800000</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>9660755</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>69175238</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>6500000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>800000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>3732705</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>68420938</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>6500000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>800000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>123185482</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>68127006</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>6500000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>800000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>131302553</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>64639406</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>5500000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>700000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>116006542</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>63506413</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>5500000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>700000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>100299202</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>60227652</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>5500000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>700000</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>38173573</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>57203578</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>4000000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>600000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>82291199</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>55969506</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>4000000</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>600000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>91439871</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>55758420</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>4000000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>600000</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>64773635</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>53760124</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>3500000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>41355236</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>53397183</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>3500000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>151209619</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>51229074</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>3500000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>71753312</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>48616618</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>3000000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>400000</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>67719250</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>47695928</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>3000000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>400000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>75053551</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>47125563</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>3000000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="3">
         <v>400000</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>65057849</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>47026853</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>3000000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>400000</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>129039529</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>39349888</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>70307141</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>37928405</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>116370262</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>37267566</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>122312204</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>37003732</v>
       </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>76028022</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>36591345</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>18364978</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>35363241</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>25545564</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>35298523</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>60655915</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>31640844</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>1482388</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>31566677</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>20349059</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>30761186</v>
       </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
         <v>179979725</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>30510460</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>122958650</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>29986400</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>58481229</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>29657548</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>45155277</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>29237883</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>47963295</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>29165198</v>
       </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>105627215</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>28896229</v>
       </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>30958849</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>28482811</v>
       </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>61633210</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>28213323</v>
       </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>135433898</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>27937322</v>
       </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>59671930</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>27552256</v>
       </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>111292103</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>27315972</v>
       </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>76628952</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>27303170</v>
       </c>
-      <c r="D79" s="1">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>24038805</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>26617800</v>
       </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>130372935</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>26135350</v>
       </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>45511401</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>25945155</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>29240760</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>25822457</v>
       </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>138750545</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>25733416</v>
       </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>87428362</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>25251556</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>45497062</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>25152525</v>
       </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>105649485</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>25137262</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>90969567</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>24892724</v>
       </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>80915456</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>24506705</v>
       </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>102689344</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>24503854</v>
       </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>156065332</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>24272973</v>
       </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>102614248</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>24209926</v>
       </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>7967421</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>24073683</v>
       </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>135874891</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>23992338</v>
       </c>
-      <c r="D94" s="1">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>59374400</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>23672116</v>
       </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1">
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>102573628</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>23230736</v>
       </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>82063769</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>22866730</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1">
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>78172365</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>22846427</v>
       </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1">
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>45436797</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>22674437</v>
       </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>88149205</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>21735616</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1">
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>145862727</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>21485242</v>
       </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>27032799</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>21169454</v>
       </c>
-      <c r="D102" s="1">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>6186291</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <v>21094286</v>
       </c>
-      <c r="D103" s="1">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>106774288</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="1">
         <v>20845376</v>
       </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1">
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>75597392</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="1">
         <v>20687223</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1">
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>111380674</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <v>20680158</v>
       </c>
-      <c r="D106" s="1">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>62819682</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <v>20663749</v>
       </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1">
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>174761986</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>20440075</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1">
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>138480479</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <v>20219161</v>
       </c>
-      <c r="D109" s="1">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>45422391</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>20163490</v>
       </c>
-      <c r="D110" s="1">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>115316674</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>20044181</v>
       </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1">
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>128158872</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="1">
         <v>19942444</v>
       </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1">
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>111381676</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="1">
         <v>19908270</v>
       </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>83226771</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="1">
         <v>19514360</v>
       </c>
-      <c r="D114" s="1">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>157599938</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="1">
         <v>19258185</v>
       </c>
-      <c r="D115" s="1">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1">
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>75908263</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="1">
         <v>19233352</v>
       </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>90737516</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="1">
         <v>19217805</v>
       </c>
-      <c r="D117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>133757841</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="1">
         <v>18769466</v>
       </c>
-      <c r="D118" s="1">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>106280664</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="1">
         <v>18613613</v>
       </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1">
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>165660039</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="1">
         <v>18439448</v>
       </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>52156110</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="1">
         <v>18054228</v>
       </c>
-      <c r="D121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>89407722</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="1">
         <v>18050925</v>
       </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>89011324</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="1">
         <v>18006312</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>22650649</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="1">
         <v>17822824</v>
       </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>88464477</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="1">
         <v>17723710</v>
       </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>90769109</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="1">
         <v>17672739</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>88478722</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>17642734</v>
       </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>138260227</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="1">
         <v>17506659</v>
       </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1">
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>89355469</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <v>17487211</v>
       </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1">
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>141154336</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>17395476</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>152874510</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="1">
         <v>17085429</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1">
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>86428939</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <v>17064284</v>
       </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1">
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>91649416</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <v>17004697</v>
       </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1">
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>61942957</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <v>16840433</v>
       </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>132853690</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <v>16646680</v>
       </c>
-      <c r="D135" s="1">
-        <v>1</v>
-      </c>
-      <c r="E135" s="1">
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>152870519</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>16635439</v>
       </c>
-      <c r="D136" s="1">
-        <v>1</v>
-      </c>
-      <c r="E136" s="1">
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>12076279</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="1">
         <v>16633905</v>
       </c>
-      <c r="D137" s="1">
-        <v>1</v>
-      </c>
-      <c r="E137" s="1">
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>129013031</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="1">
         <v>16518342</v>
       </c>
-      <c r="D138" s="1">
-        <v>1</v>
-      </c>
-      <c r="E138" s="1">
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>91646823</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="1">
         <v>16517696</v>
       </c>
-      <c r="D139" s="1">
-        <v>1</v>
-      </c>
-      <c r="E139" s="1">
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+      <c r="E139" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>77388706</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="1">
         <v>16236081</v>
       </c>
-      <c r="D140" s="1">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1">
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>88480351</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="1">
         <v>15890308</v>
       </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1">
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>70072085</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="1">
         <v>15815582</v>
       </c>
-      <c r="D142" s="1">
-        <v>1</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>144588711</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="1">
         <v>15412462</v>
       </c>
-      <c r="D143" s="1">
-        <v>1</v>
-      </c>
-      <c r="E143" s="1">
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>83580202</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="1">
         <v>15226565</v>
       </c>
-      <c r="D144" s="1">
-        <v>1</v>
-      </c>
-      <c r="E144" s="1">
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>84593145</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="1">
         <v>15194631</v>
       </c>
-      <c r="D145" s="1">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1">
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>85314440</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="1">
         <v>15108781</v>
       </c>
-      <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="E146" s="1">
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>129353741</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="1">
         <v>15032993</v>
       </c>
-      <c r="D147" s="1">
-        <v>1</v>
-      </c>
-      <c r="E147" s="1">
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>130652490</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="1">
         <v>14961207</v>
       </c>
-      <c r="D148" s="1">
-        <v>1</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>145876288</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="1">
         <v>14615656</v>
       </c>
-      <c r="D149" s="1">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>77394483</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="1">
         <v>14461643</v>
       </c>
-      <c r="D150" s="1">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>128214365</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="1">
         <v>14448728</v>
       </c>
-      <c r="D151" s="1">
-        <v>1</v>
-      </c>
-      <c r="E151" s="1">
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>31043187</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="1">
         <v>14300588</v>
       </c>
-      <c r="D152" s="1">
-        <v>1</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>125035500</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="1">
         <v>14242642</v>
       </c>
-      <c r="D153" s="1">
-        <v>1</v>
-      </c>
-      <c r="E153" s="1">
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>19584568</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="1">
         <v>14180961</v>
       </c>
-      <c r="D154" s="1">
-        <v>1</v>
-      </c>
-      <c r="E154" s="1">
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>94084580</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="1">
         <v>14035139</v>
       </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>109498095</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="1">
         <v>13604880</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>129793955</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="1">
         <v>13604111</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>121426462</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="1">
         <v>13307068</v>
       </c>
-      <c r="D158" s="1">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>140771996</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="1">
         <v>13288591</v>
       </c>
-      <c r="D159" s="1">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1">
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>51240734</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="1">
         <v>13200457</v>
       </c>
-      <c r="D160" s="1">
-        <v>1</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>71472982</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="1">
         <v>13020133</v>
       </c>
-      <c r="D161" s="1">
-        <v>1</v>
-      </c>
-      <c r="E161" s="1">
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>25815880</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="1">
         <v>12885775</v>
       </c>
-      <c r="D162" s="1">
-        <v>1</v>
-      </c>
-      <c r="E162" s="1">
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>88119521</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="1">
         <v>12526642</v>
       </c>
-      <c r="D163" s="1">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1">
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>35597024</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="1">
         <v>12283421</v>
       </c>
-      <c r="D164" s="1">
-        <v>1</v>
-      </c>
-      <c r="E164" s="1">
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>59397758</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="1">
         <v>11950726</v>
       </c>
-      <c r="D165" s="1">
-        <v>1</v>
-      </c>
-      <c r="E165" s="1">
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>159710324</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="1">
         <v>11622581</v>
       </c>
-      <c r="D166" s="1">
-        <v>1</v>
-      </c>
-      <c r="E166" s="1">
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>135939997</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="1">
         <v>11572835</v>
       </c>
-      <c r="D167" s="1">
-        <v>1</v>
-      </c>
-      <c r="E167" s="1">
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>160895190</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="1">
         <v>11568369</v>
       </c>
-      <c r="D168" s="1">
-        <v>1</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>169734936</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="1">
         <v>11541637</v>
       </c>
-      <c r="D169" s="1">
-        <v>1</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>170329846</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="1">
         <v>11330655</v>
       </c>
-      <c r="D170" s="1">
-        <v>1</v>
-      </c>
-      <c r="E170" s="1">
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="1">
         <v>171174731</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="1">
         <v>11318359</v>
       </c>
-      <c r="D171" s="1">
-        <v>1</v>
-      </c>
-      <c r="E171" s="1">
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>169665144</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="1">
         <v>11312217</v>
       </c>
-      <c r="D172" s="1">
-        <v>1</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>96018626</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="1">
         <v>11259615</v>
       </c>
-      <c r="D173" s="1">
-        <v>1</v>
-      </c>
-      <c r="E173" s="1">
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>166029476</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="1">
         <v>11162301</v>
       </c>
-      <c r="D174" s="1">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1">
+      <c r="D174" s="3">
+        <v>1</v>
+      </c>
+      <c r="E174" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>162562271</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="1">
         <v>11035612</v>
       </c>
-      <c r="D175" s="1">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1">
+      <c r="D175" s="3">
+        <v>1</v>
+      </c>
+      <c r="E175" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>136778372</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="1">
         <v>11027724</v>
       </c>
-      <c r="D176" s="1">
-        <v>1</v>
-      </c>
-      <c r="E176" s="1">
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="E176" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>170371529</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="1">
         <v>11007668</v>
       </c>
-      <c r="D177" s="1">
-        <v>1</v>
-      </c>
-      <c r="E177" s="1">
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+      <c r="E177" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>174008552</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="1">
         <v>10835773</v>
       </c>
-      <c r="D178" s="1">
-        <v>1</v>
-      </c>
-      <c r="E178" s="1">
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>129794124</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="1">
         <v>10674650</v>
       </c>
-      <c r="D179" s="1">
-        <v>1</v>
-      </c>
-      <c r="E179" s="1">
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>96022627</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="1">
         <v>10651310</v>
       </c>
-      <c r="D180" s="1">
-        <v>1</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="D180" s="3">
+        <v>1</v>
+      </c>
+      <c r="E180" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>162561398</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="1">
         <v>10526961</v>
       </c>
-      <c r="D181" s="1">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1">
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+      <c r="E181" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>45454793</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="1">
         <v>10466724</v>
       </c>
-      <c r="D182" s="1">
-        <v>1</v>
-      </c>
-      <c r="E182" s="1">
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+      <c r="E182" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>178380631</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="1">
         <v>10331875</v>
       </c>
-      <c r="D183" s="1">
-        <v>1</v>
-      </c>
-      <c r="E183" s="1">
+      <c r="D183" s="3">
+        <v>1</v>
+      </c>
+      <c r="E183" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>178379849</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="1">
         <v>10319835</v>
       </c>
-      <c r="D184" s="1">
-        <v>1</v>
-      </c>
-      <c r="E184" s="1">
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
+      <c r="E184" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>178451273</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="1">
         <v>10229504</v>
       </c>
-      <c r="D185" s="1">
-        <v>1</v>
-      </c>
-      <c r="E185" s="1">
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>140697952</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="1">
         <v>9984541</v>
       </c>
-      <c r="D186" s="1">
-        <v>1</v>
-      </c>
-      <c r="E186" s="1">
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>84225950</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="1">
         <v>9945760</v>
       </c>
-      <c r="D187" s="1">
-        <v>1</v>
-      </c>
-      <c r="E187" s="1">
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>140618805</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="1">
         <v>9935896</v>
       </c>
-      <c r="D188" s="1">
-        <v>1</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>92778114</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="1">
         <v>9921963</v>
       </c>
-      <c r="D189" s="1">
-        <v>1</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>161998715</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="1">
         <v>9910783</v>
       </c>
-      <c r="D190" s="1">
-        <v>1</v>
-      </c>
-      <c r="E190" s="1">
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+      <c r="E190" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>88450074</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="1">
         <v>9873853</v>
       </c>
-      <c r="D191" s="1">
-        <v>1</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="E191" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>180317373</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="1">
         <v>9641490</v>
       </c>
-      <c r="D192" s="1">
-        <v>1</v>
-      </c>
-      <c r="E192" s="1">
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+      <c r="E192" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>157315131</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="1">
         <v>9331531</v>
       </c>
-      <c r="D193" s="1">
-        <v>1</v>
-      </c>
-      <c r="E193" s="1">
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+      <c r="E193" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="1">
         <v>102634767</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="1">
         <v>9245674</v>
       </c>
-      <c r="D194" s="1">
-        <v>1</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
+      <c r="E194" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="1">
         <v>174359686</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="1">
         <v>9232834</v>
       </c>
-      <c r="D195" s="1">
-        <v>1</v>
-      </c>
-      <c r="E195" s="1">
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="1">
         <v>78982665</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="1">
         <v>9020381</v>
       </c>
-      <c r="D196" s="1">
-        <v>1</v>
-      </c>
-      <c r="E196" s="1">
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="E196" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>88452327</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="1">
         <v>8534240</v>
       </c>
-      <c r="D197" s="1">
-        <v>1</v>
-      </c>
-      <c r="E197" s="1">
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="E197" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="1">
         <v>17835191</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="1">
         <v>8264863</v>
       </c>
-      <c r="D198" s="1">
-        <v>1</v>
-      </c>
-      <c r="E198" s="1">
+      <c r="D198" s="3">
+        <v>1</v>
+      </c>
+      <c r="E198" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>129794878</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="1">
         <v>7929573</v>
       </c>
-      <c r="D199" s="1">
-        <v>1</v>
-      </c>
-      <c r="E199" s="1">
+      <c r="D199" s="3">
+        <v>1</v>
+      </c>
+      <c r="E199" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>134391802</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="1">
         <v>7887393</v>
       </c>
-      <c r="D200" s="1">
-        <v>1</v>
-      </c>
-      <c r="E200" s="1">
+      <c r="D200" s="3">
+        <v>1</v>
+      </c>
+      <c r="E200" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>171183362</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="1">
         <v>7845778</v>
       </c>
-      <c r="D201" s="1">
-        <v>1</v>
-      </c>
-      <c r="E201" s="1">
+      <c r="D201" s="3">
+        <v>1</v>
+      </c>
+      <c r="E201" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="1">
         <v>171183748</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="1">
         <v>7602683</v>
       </c>
-      <c r="D202" s="1">
-        <v>1</v>
-      </c>
-      <c r="E202" s="1">
+      <c r="D202" s="3">
+        <v>1</v>
+      </c>
+      <c r="E202" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="1">
         <v>129794667</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="1">
         <v>7591091</v>
       </c>
-      <c r="D203" s="1">
-        <v>1</v>
-      </c>
-      <c r="E203" s="1">
+      <c r="D203" s="3">
+        <v>1</v>
+      </c>
+      <c r="E203" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="1">
         <v>57257664</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="1">
         <v>7497138</v>
       </c>
-      <c r="D204" s="1">
-        <v>1</v>
-      </c>
-      <c r="E204" s="1">
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="E204" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="1">
         <v>130127651</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="1">
         <v>7276892</v>
       </c>
-      <c r="D205" s="1">
-        <v>1</v>
-      </c>
-      <c r="E205" s="1">
+      <c r="D205" s="3">
+        <v>1</v>
+      </c>
+      <c r="E205" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="1">
         <v>45465850</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="1">
         <v>6314806</v>
       </c>
-      <c r="D206" s="1">
-        <v>1</v>
-      </c>
-      <c r="E206" s="1">
+      <c r="D206" s="3">
+        <v>1</v>
+      </c>
+      <c r="E206" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="1">
         <v>171150709</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="1">
         <v>6219794</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
-      </c>
-      <c r="E207" s="1">
+      <c r="D207" s="3">
+        <v>1</v>
+      </c>
+      <c r="E207" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="1">
         <v>171152106</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="1">
         <v>6193362</v>
       </c>
-      <c r="D208" s="1">
-        <v>1</v>
-      </c>
-      <c r="E208" s="1">
+      <c r="D208" s="3">
+        <v>1</v>
+      </c>
+      <c r="E208" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="1">
         <v>101636956</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="1">
         <v>6182531</v>
       </c>
-      <c r="D209" s="1">
-        <v>1</v>
-      </c>
-      <c r="E209" s="1">
+      <c r="D209" s="3">
+        <v>1</v>
+      </c>
+      <c r="E209" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="1">
         <v>161998483</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="1">
         <v>6180518</v>
       </c>
-      <c r="D210" s="1">
-        <v>1</v>
-      </c>
-      <c r="E210" s="1">
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="1">
         <v>161998216</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="1">
         <v>6165936</v>
       </c>
-      <c r="D211" s="1">
-        <v>1</v>
-      </c>
-      <c r="E211" s="1">
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="1">
         <v>166535059</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="1">
         <v>6062118</v>
       </c>
-      <c r="D212" s="1">
-        <v>1</v>
-      </c>
-      <c r="E212" s="1">
+      <c r="D212" s="3">
+        <v>1</v>
+      </c>
+      <c r="E212" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="1">
         <v>78535791</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="1">
         <v>6006129</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
-      </c>
-      <c r="E213" s="1">
+      <c r="D213" s="3">
+        <v>1</v>
+      </c>
+      <c r="E213" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="1">
         <v>116663854</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="1">
         <v>5970960</v>
       </c>
-      <c r="D214" s="1">
-        <v>1</v>
-      </c>
-      <c r="E214" s="1">
+      <c r="D214" s="3">
+        <v>1</v>
+      </c>
+      <c r="E214" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="1">
         <v>160942157</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="1">
         <v>5964941</v>
       </c>
-      <c r="D215" s="1">
-        <v>1</v>
-      </c>
-      <c r="E215" s="1">
+      <c r="D215" s="3">
+        <v>1</v>
+      </c>
+      <c r="E215" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="1">
         <v>146958576</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="1">
         <v>5631942</v>
       </c>
-      <c r="D216" s="1">
-        <v>1</v>
-      </c>
-      <c r="E216" s="1">
+      <c r="D216" s="3">
+        <v>1</v>
+      </c>
+      <c r="E216" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="1">
         <v>75742032</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="1">
         <v>5484523</v>
       </c>
-      <c r="D217" s="1">
-        <v>1</v>
-      </c>
-      <c r="E217" s="1">
+      <c r="D217" s="3">
+        <v>1</v>
+      </c>
+      <c r="E217" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1">
         <v>131739189</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="1">
         <v>5379982</v>
       </c>
-      <c r="D218" s="1">
-        <v>1</v>
-      </c>
-      <c r="E218" s="1">
+      <c r="D218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="1">
         <v>139652333</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="1">
         <v>5282860</v>
       </c>
-      <c r="D219" s="1">
-        <v>1</v>
-      </c>
-      <c r="E219" s="1">
+      <c r="D219" s="3">
+        <v>1</v>
+      </c>
+      <c r="E219" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="1">
         <v>62233759</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="1">
         <v>4550083</v>
       </c>
-      <c r="D220" s="1">
-        <v>1</v>
-      </c>
-      <c r="E220" s="1">
+      <c r="D220" s="3">
+        <v>1</v>
+      </c>
+      <c r="E220" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="1">
         <v>89256988</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="1">
         <v>4443084</v>
       </c>
-      <c r="D221" s="1">
-        <v>1</v>
-      </c>
-      <c r="E221" s="1">
+      <c r="D221" s="3">
+        <v>1</v>
+      </c>
+      <c r="E221" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="1">
         <v>45471757</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="1">
         <v>3637269</v>
       </c>
-      <c r="D222" s="1">
-        <v>1</v>
-      </c>
-      <c r="E222" s="1">
+      <c r="D222" s="3">
+        <v>1</v>
+      </c>
+      <c r="E222" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="1">
         <v>142247885</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="1">
         <v>3620905</v>
       </c>
-      <c r="D223" s="1">
-        <v>1</v>
-      </c>
-      <c r="E223" s="1">
+      <c r="D223" s="3">
+        <v>1</v>
+      </c>
+      <c r="E223" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="1">
         <v>89257233</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="1">
         <v>3608280</v>
       </c>
-      <c r="D224" s="1">
-        <v>1</v>
-      </c>
-      <c r="E224" s="1">
+      <c r="D224" s="3">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="1">
         <v>89281865</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="1">
         <v>3601147</v>
       </c>
-      <c r="D225" s="1">
-        <v>1</v>
-      </c>
-      <c r="E225" s="1">
+      <c r="D225" s="3">
+        <v>1</v>
+      </c>
+      <c r="E225" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="1">
         <v>196805171</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="1">
         <v>3564590</v>
       </c>
-      <c r="D226" s="1">
-        <v>1</v>
-      </c>
-      <c r="E226" s="1">
+      <c r="D226" s="3">
+        <v>1</v>
+      </c>
+      <c r="E226" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="1">
         <v>89273623</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="1">
         <v>3538803</v>
       </c>
-      <c r="D227" s="1">
-        <v>1</v>
-      </c>
-      <c r="E227" s="1">
+      <c r="D227" s="3">
+        <v>1</v>
+      </c>
+      <c r="E227" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="1">
         <v>118806541</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="1">
         <v>3491234</v>
       </c>
-      <c r="D228" s="1">
-        <v>1</v>
-      </c>
-      <c r="E228" s="1">
+      <c r="D228" s="3">
+        <v>1</v>
+      </c>
+      <c r="E228" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="1">
         <v>89277978</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="1">
         <v>3181192</v>
       </c>
-      <c r="D229" s="1">
-        <v>1</v>
-      </c>
-      <c r="E229" s="1">
+      <c r="D229" s="3">
+        <v>1</v>
+      </c>
+      <c r="E229" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="1">
         <v>89307486</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="1">
         <v>3158436</v>
       </c>
-      <c r="D230" s="1">
-        <v>1</v>
-      </c>
-      <c r="E230" s="1">
+      <c r="D230" s="3">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="1">
         <v>140818884</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="1">
         <v>2805868</v>
       </c>
-      <c r="D231" s="1">
-        <v>1</v>
-      </c>
-      <c r="E231" s="1">
+      <c r="D231" s="3">
+        <v>1</v>
+      </c>
+      <c r="E231" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="1">
         <v>90446364</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="1">
         <v>2554167</v>
       </c>
-      <c r="D232" s="1">
-        <v>1</v>
-      </c>
-      <c r="E232" s="1">
+      <c r="D232" s="3">
+        <v>1</v>
+      </c>
+      <c r="E232" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="1">
         <v>45426926</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="1">
         <v>2544803</v>
       </c>
-      <c r="D233" s="1">
-        <v>1</v>
-      </c>
-      <c r="E233" s="1">
+      <c r="D233" s="3">
+        <v>1</v>
+      </c>
+      <c r="E233" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="1">
         <v>45457030</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="1">
         <v>2496520</v>
       </c>
-      <c r="D234" s="1">
-        <v>1</v>
-      </c>
-      <c r="E234" s="1">
+      <c r="D234" s="3">
+        <v>1</v>
+      </c>
+      <c r="E234" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="1">
         <v>134569112</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="1">
         <v>2475645</v>
       </c>
-      <c r="D235" s="1">
-        <v>1</v>
-      </c>
-      <c r="E235" s="1">
+      <c r="D235" s="3">
+        <v>1</v>
+      </c>
+      <c r="E235" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="1">
         <v>90449862</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="1">
         <v>2451088</v>
       </c>
-      <c r="D236" s="1">
-        <v>1</v>
-      </c>
-      <c r="E236" s="1">
+      <c r="D236" s="3">
+        <v>1</v>
+      </c>
+      <c r="E236" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="1">
         <v>181578429</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="1">
         <v>2375286</v>
       </c>
-      <c r="D237" s="1">
-        <v>1</v>
-      </c>
-      <c r="E237" s="1">
+      <c r="D237" s="3">
+        <v>1</v>
+      </c>
+      <c r="E237" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="1">
         <v>138529506</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="1">
         <v>2218822</v>
       </c>
-      <c r="D238" s="1">
-        <v>1</v>
-      </c>
-      <c r="E238" s="1">
+      <c r="D238" s="3">
+        <v>1</v>
+      </c>
+      <c r="E238" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="1">
         <v>134503682</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="1">
         <v>2045581</v>
       </c>
-      <c r="D239" s="1">
-        <v>1</v>
-      </c>
-      <c r="E239" s="1">
+      <c r="D239" s="3">
+        <v>1</v>
+      </c>
+      <c r="E239" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="1">
         <v>91785138</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="1">
         <v>1845588</v>
       </c>
-      <c r="D240" s="1">
-        <v>1</v>
-      </c>
-      <c r="E240" s="1">
+      <c r="D240" s="3">
+        <v>1</v>
+      </c>
+      <c r="E240" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="1">
         <v>179279638</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="1">
         <v>1811227</v>
       </c>
-      <c r="D241" s="1">
-        <v>1</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="D241" s="3">
+        <v>1</v>
+      </c>
+      <c r="E241" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="1">
         <v>55133977</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="1">
         <v>1772323</v>
       </c>
-      <c r="D242" s="1">
-        <v>1</v>
-      </c>
-      <c r="E242" s="1">
+      <c r="D242" s="3">
+        <v>1</v>
+      </c>
+      <c r="E242" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="1">
         <v>181578834</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="1">
         <v>1752370</v>
       </c>
-      <c r="D243" s="1">
-        <v>1</v>
-      </c>
-      <c r="E243" s="1">
+      <c r="D243" s="3">
+        <v>1</v>
+      </c>
+      <c r="E243" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="1">
         <v>201432367</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="1">
         <v>1678926</v>
       </c>
-      <c r="D244" s="1">
-        <v>1</v>
-      </c>
-      <c r="E244" s="1">
+      <c r="D244" s="3">
+        <v>1</v>
+      </c>
+      <c r="E244" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="1">
         <v>91785382</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="1">
         <v>1590733</v>
       </c>
-      <c r="D245" s="1">
-        <v>1</v>
-      </c>
-      <c r="E245" s="1">
+      <c r="D245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="1">
         <v>91785854</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="1">
         <v>1377475</v>
       </c>
-      <c r="D246" s="1">
-        <v>1</v>
-      </c>
-      <c r="E246" s="1">
+      <c r="D246" s="3">
+        <v>1</v>
+      </c>
+      <c r="E246" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="1">
         <v>91784001</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="1">
         <v>1297063</v>
       </c>
-      <c r="D247" s="1">
-        <v>1</v>
-      </c>
-      <c r="E247" s="1">
+      <c r="D247" s="3">
+        <v>1</v>
+      </c>
+      <c r="E247" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="1">
         <v>91788898</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="1">
         <v>1285015</v>
       </c>
-      <c r="D248" s="1">
-        <v>1</v>
-      </c>
-      <c r="E248" s="1">
+      <c r="D248" s="3">
+        <v>1</v>
+      </c>
+      <c r="E248" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="1">
         <v>45466658</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="1">
         <v>1282677</v>
       </c>
-      <c r="D249" s="1">
-        <v>1</v>
-      </c>
-      <c r="E249" s="1">
+      <c r="D249" s="3">
+        <v>1</v>
+      </c>
+      <c r="E249" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="1">
         <v>201174382</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="1">
         <v>1233846</v>
       </c>
-      <c r="D250" s="1">
-        <v>1</v>
-      </c>
-      <c r="E250" s="1">
+      <c r="D250" s="3">
+        <v>1</v>
+      </c>
+      <c r="E250" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="1">
         <v>201173629</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="1">
         <v>1205327</v>
       </c>
-      <c r="D251" s="1">
-        <v>1</v>
-      </c>
-      <c r="E251" s="1">
+      <c r="D251" s="3">
+        <v>1</v>
+      </c>
+      <c r="E251" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="1">
         <v>91787148</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="1">
         <v>1114181</v>
       </c>
-      <c r="D252" s="1">
-        <v>1</v>
-      </c>
-      <c r="E252" s="1">
+      <c r="D252" s="3">
+        <v>1</v>
+      </c>
+      <c r="E252" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="1">
         <v>195940357</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="1">
         <v>758923</v>
       </c>
-      <c r="D253" s="1">
-        <v>1</v>
-      </c>
-      <c r="E253" s="1">
+      <c r="D253" s="3">
+        <v>1</v>
+      </c>
+      <c r="E253" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="1">
         <v>153033707</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="1">
         <v>690865</v>
       </c>
-      <c r="D254" s="1">
-        <v>1</v>
-      </c>
-      <c r="E254" s="1">
+      <c r="D254" s="3">
+        <v>1</v>
+      </c>
+      <c r="E254" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="1">
         <v>81613744</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="1">
         <v>575579</v>
       </c>
-      <c r="D255" s="1">
-        <v>1</v>
-      </c>
-      <c r="E255" s="1">
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+      <c r="E255" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="1">
         <v>56840460</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="1">
         <v>547459</v>
       </c>
-      <c r="D256" s="1">
-        <v>1</v>
-      </c>
-      <c r="E256" s="1">
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
+      <c r="E256" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="1">
         <v>47126495</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="1">
         <v>486717</v>
       </c>
-      <c r="D257" s="1">
-        <v>1</v>
-      </c>
-      <c r="E257" s="1">
+      <c r="D257" s="3">
+        <v>1</v>
+      </c>
+      <c r="E257" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="1">
         <v>163076972</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="1">
         <v>449555</v>
       </c>
-      <c r="D258" s="1">
-        <v>1</v>
-      </c>
-      <c r="E258" s="1">
+      <c r="D258" s="3">
+        <v>1</v>
+      </c>
+      <c r="E258" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="1">
         <v>153034151</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="1">
         <v>422910</v>
       </c>
-      <c r="D259" s="1">
-        <v>1</v>
-      </c>
-      <c r="E259" s="1">
+      <c r="D259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="1">
         <v>164638687</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="1">
         <v>380756</v>
       </c>
-      <c r="D260" s="1">
-        <v>1</v>
-      </c>
-      <c r="E260" s="1">
+      <c r="D260" s="3">
+        <v>1</v>
+      </c>
+      <c r="E260" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="1">
         <v>45488526</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="1">
         <v>338947</v>
       </c>
-      <c r="D261" s="1">
-        <v>1</v>
-      </c>
-      <c r="E261" s="1">
+      <c r="D261" s="3">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="1">
         <v>179042653</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="1">
         <v>285477</v>
       </c>
-      <c r="D262" s="1">
-        <v>1</v>
-      </c>
-      <c r="E262" s="1">
+      <c r="D262" s="3">
+        <v>1</v>
+      </c>
+      <c r="E262" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="1">
         <v>197983578</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="1">
         <v>284219</v>
       </c>
-      <c r="D263" s="1">
-        <v>1</v>
-      </c>
-      <c r="E263" s="1">
+      <c r="D263" s="3">
+        <v>1</v>
+      </c>
+      <c r="E263" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="1">
         <v>200836946</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="1">
         <v>207864</v>
       </c>
-      <c r="D264" s="1">
-        <v>1</v>
-      </c>
-      <c r="E264" s="1">
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+      <c r="E264" s="3">
         <v>1</v>
       </c>
     </row>

--- a/required.xlsx
+++ b/required.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEFFACF-D67E-4000-848A-6B6A6376E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35C5820-CB50-4905-B4F1-168897744688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{AA60D64A-553A-4D5A-BBD6-69E8EAA4DB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
   <si>
     <t>Governor ID</t>
   </si>
@@ -840,13 +840,19 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Vali45467514</t>
+  </si>
+  <si>
+    <t>Thống đốc45449474</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +869,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -889,13 +902,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1241,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559BD048-844F-4089-89DC-8705280A656D}">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,13 +1270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1773,7 +1787,7 @@
         <v>49499709</v>
       </c>
       <c r="C31" s="1">
-        <v>75317940</v>
+        <v>75519032</v>
       </c>
       <c r="D31" s="3">
         <v>9500000</v>
@@ -5741,6 +5755,138 @@
       </c>
       <c r="E264" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45467514</v>
+      </c>
+      <c r="C265" s="1">
+        <v>165742</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C266" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C267" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C268" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C269" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C270" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C271" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C272" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C273" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C274" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C275" s="1">
+        <v>124246</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45449474</v>
+      </c>
+      <c r="C276" s="1">
+        <v>124246</v>
       </c>
     </row>
   </sheetData>
